--- a/notes/pdVFS database structure.xlsx
+++ b/notes/pdVFS database structure.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Desktop\pd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\postdoc\postdoc\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA25A43C-AA6B-433B-AFF0-9A09D09CD8B4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CE22C5-42C6-4168-900E-911611D11D6D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20115" windowHeight="7320" xr2:uid="{161AC008-48D0-4979-A63E-E318768C4B55}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="20115" windowHeight="7320" activeTab="2" xr2:uid="{161AC008-48D0-4979-A63E-E318768C4B55}"/>
   </bookViews>
   <sheets>
     <sheet name="vfs db" sheetId="1" r:id="rId1"/>
     <sheet name="medium db" sheetId="2" r:id="rId2"/>
+    <sheet name="service token" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
   <si>
     <t>pdvfs</t>
   </si>
@@ -191,6 +192,51 @@
   </si>
   <si>
     <t>md5 hash of the ENTIRE DOCUMENT</t>
+  </si>
+  <si>
+    <t>user-defined piece of data, no role in pdstorage</t>
+  </si>
+  <si>
+    <t>if true then I/O not possible on this document</t>
+  </si>
+  <si>
+    <t>if true, pulling the document will generate an error</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>tokencreated</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>ssl_ca</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>INTEGER PRIMARY KEY AUTOINCREMENT</t>
+  </si>
+  <si>
+    <t>ssl_force</t>
+  </si>
+  <si>
+    <t>ssl_certificate</t>
+  </si>
+  <si>
+    <t>ssl_key</t>
   </si>
 </sst>
 </file>
@@ -623,9 +669,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D59737-61F6-44C9-83B3-D778F815C932}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +679,7 @@
     <col min="1" max="1" width="18.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="48.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="26" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" style="2" customWidth="1"/>
@@ -878,6 +924,9 @@
       <c r="C24" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="D24" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -924,6 +973,9 @@
       <c r="C29" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="D29" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
@@ -931,6 +983,9 @@
       </c>
       <c r="C30" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1046,4 +1101,177 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B0D835-9E5C-4E6A-BEF4-7A15FDFE554F}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/notes/pdVFS database structure.xlsx
+++ b/notes/pdVFS database structure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\postdoc\postdoc\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\github\postdoc\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CE22C5-42C6-4168-900E-911611D11D6D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922870D3-1E54-4FE7-9057-6C2A5525A7D1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="20115" windowHeight="7320" activeTab="2" xr2:uid="{161AC008-48D0-4979-A63E-E318768C4B55}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="20115" windowHeight="7320" activeTab="2" xr2:uid="{161AC008-48D0-4979-A63E-E318768C4B55}"/>
   </bookViews>
   <sheets>
     <sheet name="vfs db" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
   <si>
     <t>pdvfs</t>
   </si>
@@ -206,9 +206,6 @@
     <t>services</t>
   </si>
   <si>
-    <t>tokencreated</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -230,13 +227,22 @@
     <t>INTEGER PRIMARY KEY AUTOINCREMENT</t>
   </si>
   <si>
-    <t>ssl_force</t>
-  </si>
-  <si>
     <t>ssl_certificate</t>
   </si>
   <si>
     <t>ssl_key</t>
+  </si>
+  <si>
+    <t>tokenissued</t>
+  </si>
+  <si>
+    <t>base64 encoded, if empty, prompts for password (if the application supports it)</t>
+  </si>
+  <si>
+    <t>if empty, prompts prompts for full login credentials (if the appliations supports it)</t>
+  </si>
+  <si>
+    <t>secure</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1114,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,7 +1122,7 @@
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="50.42578125" customWidth="1"/>
+    <col min="4" max="4" width="74.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1144,7 +1150,7 @@
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,7 +1187,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1189,7 +1195,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1197,7 +1203,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -1205,7 +1211,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1213,26 +1219,29 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -1240,7 +1249,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -1251,7 +1260,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -1262,7 +1271,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
